--- a/data_capture/excels/ENJU3_SA_dados.xlsx
+++ b/data_capture/excels/ENJU3_SA_dados.xlsx
@@ -922,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1124"/>
+  <dimension ref="A1:H1126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30149,6 +30149,58 @@
         <v>0</v>
       </c>
       <c r="H1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8">
+      <c r="A1125" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1125">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="C1125">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="D1125">
+        <v>1.080000042915344</v>
+      </c>
+      <c r="E1125">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="F1125">
+        <v>1731600</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8">
+      <c r="A1126" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1126">
+        <v>1.139999985694885</v>
+      </c>
+      <c r="C1126">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D1126">
+        <v>1.110000014305115</v>
+      </c>
+      <c r="E1126">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="F1126">
+        <v>798900</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
         <v>0</v>
       </c>
     </row>
@@ -30202,10 +30254,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C2">
-        <v>3.526838829234999</v>
+        <v>3.522542226897346</v>
       </c>
       <c r="D2">
         <v>1.639999985694885</v>
@@ -30214,7 +30266,7 @@
         <v>1.240000009536743</v>
       </c>
       <c r="F2">
-        <v>4.039650455503055</v>
+        <v>4.037340138400546</v>
       </c>
       <c r="G2">
         <v>0.7099999785423279</v>
@@ -30223,10 +30275,10 @@
         <v>1.25</v>
       </c>
       <c r="I2">
-        <v>3.054999947547913</v>
+        <v>3.049999952316284</v>
       </c>
       <c r="J2">
-        <v>1.804999947547913</v>
+        <v>1.799999952316284</v>
       </c>
       <c r="K2">
         <v>21.19000053405762</v>
@@ -30237,10 +30289,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C3">
-        <v>3.641950134867976</v>
+        <v>3.63755555677414</v>
       </c>
       <c r="D3">
         <v>1.690000057220459</v>
@@ -30249,7 +30301,7 @@
         <v>1.190000057220459</v>
       </c>
       <c r="F3">
-        <v>4.17016523305765</v>
+        <v>4.167755775834643</v>
       </c>
       <c r="G3">
         <v>0.75</v>
@@ -30258,10 +30310,10 @@
         <v>1.289999961853027</v>
       </c>
       <c r="I3">
-        <v>3.160000085830688</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="J3">
-        <v>1.870000123977661</v>
+        <v>1.860000133514404</v>
       </c>
       <c r="K3">
         <v>21.73999977111816</v>
@@ -30272,10 +30324,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C4">
-        <v>3.406536067636121</v>
+        <v>3.402426670233409</v>
       </c>
       <c r="D4">
         <v>1.580000042915344</v>
@@ -30284,7 +30336,7 @@
         <v>1.230000019073486</v>
       </c>
       <c r="F4">
-        <v>3.889043471789938</v>
+        <v>3.886803042358452</v>
       </c>
       <c r="G4">
         <v>0.699999988079071</v>
@@ -30293,10 +30345,10 @@
         <v>1.210000038146973</v>
       </c>
       <c r="I4">
-        <v>2.965000033378601</v>
+        <v>2.960000038146973</v>
       </c>
       <c r="J4">
-        <v>1.754999995231628</v>
+        <v>1.75</v>
       </c>
       <c r="K4">
         <v>19.40999984741211</v>
@@ -30307,10 +30359,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C5">
-        <v>3.510952805050334</v>
+        <v>3.506737777815925</v>
       </c>
       <c r="D5">
         <v>1.629999995231628</v>
@@ -30319,7 +30371,7 @@
         <v>1.230000019073486</v>
       </c>
       <c r="F5">
-        <v>4.022768673633863</v>
+        <v>4.020430068601499</v>
       </c>
       <c r="G5">
         <v>0.7099999785423279</v>
@@ -30342,10 +30394,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C6">
-        <v>1594170.970614426</v>
+        <v>1593586.222222222</v>
       </c>
       <c r="D6">
         <v>1235900</v>
@@ -30354,19 +30406,19 @@
         <v>149900</v>
       </c>
       <c r="F6">
-        <v>1337610.934481415</v>
+        <v>1336637.019128346</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>663250</v>
+        <v>664200</v>
       </c>
       <c r="I6">
-        <v>2151750</v>
+        <v>2149100</v>
       </c>
       <c r="J6">
-        <v>1488500</v>
+        <v>1484900</v>
       </c>
       <c r="K6">
         <v>16280100</v>
@@ -30377,7 +30429,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -30412,7 +30464,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="C8">
         <v>0</v>
